--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H2">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I2">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J2">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N2">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P2">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q2">
-        <v>0.1521183286146667</v>
+        <v>8.874219489666444</v>
       </c>
       <c r="R2">
-        <v>1.369064957532</v>
+        <v>79.867975406998</v>
       </c>
       <c r="S2">
-        <v>0.0001224329017346948</v>
+        <v>0.007824805018844463</v>
       </c>
       <c r="T2">
-        <v>0.0001224329017346948</v>
+        <v>0.007824805018844461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H3">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I3">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J3">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P3">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q3">
-        <v>0.008762469074666667</v>
+        <v>0.01590990545155556</v>
       </c>
       <c r="R3">
-        <v>0.07886222167199999</v>
+        <v>0.143189149064</v>
       </c>
       <c r="S3">
-        <v>7.052500017203904E-06</v>
+        <v>1.402849097564433E-05</v>
       </c>
       <c r="T3">
-        <v>7.052500017203905E-06</v>
+        <v>1.402849097564433E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H4">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I4">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J4">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N4">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O4">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P4">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q4">
-        <v>202.799511723656</v>
+        <v>722.3059545012342</v>
       </c>
       <c r="R4">
-        <v>1825.195605512904</v>
+        <v>6500.753590511108</v>
       </c>
       <c r="S4">
-        <v>0.1632238068668374</v>
+        <v>0.6368901811031197</v>
       </c>
       <c r="T4">
-        <v>0.1632238068668374</v>
+        <v>0.6368901811031199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H5">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I5">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J5">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N5">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O5">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P5">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q5">
-        <v>0.03946762845666667</v>
+        <v>0.1811385394273334</v>
       </c>
       <c r="R5">
-        <v>0.35520865611</v>
+        <v>1.630246854846</v>
       </c>
       <c r="S5">
-        <v>3.176564139602713E-05</v>
+        <v>0.0001597181311627022</v>
       </c>
       <c r="T5">
-        <v>3.176564139602713E-05</v>
+        <v>0.0001597181311627022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H6">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I6">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J6">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N6">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P6">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q6">
-        <v>34.82822666041734</v>
+        <v>47.89125589729001</v>
       </c>
       <c r="R6">
-        <v>313.454039943756</v>
+        <v>431.02130307561</v>
       </c>
       <c r="S6">
-        <v>0.02803160467999924</v>
+        <v>0.0422279097266237</v>
       </c>
       <c r="T6">
-        <v>0.02803160467999924</v>
+        <v>0.0422279097266237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H7">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I7">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J7">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N7">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P7">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q7">
-        <v>296.5142126310814</v>
+        <v>124.1290088387956</v>
       </c>
       <c r="R7">
-        <v>2668.627913679732</v>
+        <v>1117.16107954916</v>
       </c>
       <c r="S7">
-        <v>0.2386503703308595</v>
+        <v>0.109450221788745</v>
       </c>
       <c r="T7">
-        <v>0.2386503703308594</v>
+        <v>0.109450221788745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>25</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.074599</v>
+      </c>
+      <c r="H8">
+        <v>0.223797</v>
+      </c>
+      <c r="I8">
+        <v>0.02479525085917582</v>
+      </c>
+      <c r="J8">
+        <v>0.02479525085917582</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.2663513333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.7990539999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.08678514482093329</v>
-      </c>
-      <c r="J8">
-        <v>0.08678514482093329</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N8">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P8">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q8">
-        <v>0.03069663603155556</v>
+        <v>0.2762335571543333</v>
       </c>
       <c r="R8">
-        <v>0.276269724284</v>
+        <v>2.486102014389</v>
       </c>
       <c r="S8">
-        <v>2.470628133416642E-05</v>
+        <v>0.000243567755667009</v>
       </c>
       <c r="T8">
-        <v>2.470628133416642E-05</v>
+        <v>0.000243567755667009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H9">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I9">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J9">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P9">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q9">
-        <v>0.001768217718222222</v>
+        <v>0.0004952378946666666</v>
       </c>
       <c r="R9">
-        <v>0.015913959464</v>
+        <v>0.004457141052</v>
       </c>
       <c r="S9">
-        <v>1.423155435062903E-06</v>
+        <v>4.366738920782939E-07</v>
       </c>
       <c r="T9">
-        <v>1.423155435062903E-06</v>
+        <v>4.36673892078294E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H10">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I10">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J10">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N10">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O10">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P10">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q10">
-        <v>40.92381802673866</v>
+        <v>22.48368359583266</v>
       </c>
       <c r="R10">
-        <v>368.3143622406479</v>
+        <v>202.353152362494</v>
       </c>
       <c r="S10">
-        <v>0.03293766002233828</v>
+        <v>0.01982489169302652</v>
       </c>
       <c r="T10">
-        <v>0.03293766002233829</v>
+        <v>0.01982489169302652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H11">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I11">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J11">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N11">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O11">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P11">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q11">
-        <v>0.007964348785555556</v>
+        <v>0.005638416217</v>
       </c>
       <c r="R11">
-        <v>0.07167913906999999</v>
+        <v>0.050745745953</v>
       </c>
       <c r="S11">
-        <v>6.410130463060739E-06</v>
+        <v>4.97164934499202E-06</v>
       </c>
       <c r="T11">
-        <v>6.410130463060741E-06</v>
+        <v>4.971649344992022E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H12">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I12">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J12">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N12">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P12">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q12">
-        <v>7.028143203752444</v>
+        <v>1.490742029595</v>
       </c>
       <c r="R12">
-        <v>63.253288833772</v>
+        <v>13.416678266355</v>
       </c>
       <c r="S12">
-        <v>0.005656622539037167</v>
+        <v>0.0013144553984224</v>
       </c>
       <c r="T12">
-        <v>0.005656622539037167</v>
+        <v>0.0013144553984224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H13">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I13">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J13">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N13">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P13">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q13">
-        <v>59.83492552285377</v>
+        <v>3.863843766486666</v>
       </c>
       <c r="R13">
-        <v>538.514329705684</v>
+        <v>34.77459389838</v>
       </c>
       <c r="S13">
-        <v>0.04815832269232555</v>
+        <v>0.003406927688822824</v>
       </c>
       <c r="T13">
-        <v>0.04815832269232555</v>
+        <v>0.003406927688822823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H14">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I14">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J14">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1152486666666667</v>
+        <v>3.702912333333333</v>
       </c>
       <c r="N14">
-        <v>0.345746</v>
+        <v>11.108737</v>
       </c>
       <c r="O14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447691</v>
       </c>
       <c r="P14">
-        <v>0.0002846832990270825</v>
+        <v>0.009823161582447689</v>
       </c>
       <c r="Q14">
-        <v>0.1708934504851111</v>
+        <v>1.99013023355</v>
       </c>
       <c r="R14">
-        <v>1.538041054366</v>
+        <v>17.91117210195</v>
       </c>
       <c r="S14">
-        <v>0.0001375441159582213</v>
+        <v>0.001754788807936219</v>
       </c>
       <c r="T14">
-        <v>0.0001375441159582213</v>
+        <v>0.001754788807936219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H15">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I15">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J15">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.019916</v>
       </c>
       <c r="O15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="P15">
-        <v>1.63986064435261E-05</v>
+        <v>1.761119072996581E-05</v>
       </c>
       <c r="Q15">
-        <v>0.009843972048444444</v>
+        <v>0.0035679514</v>
       </c>
       <c r="R15">
-        <v>0.08859574843599999</v>
+        <v>0.0321115626</v>
       </c>
       <c r="S15">
-        <v>7.922950991259295E-06</v>
+        <v>3.146025862243181E-06</v>
       </c>
       <c r="T15">
-        <v>7.922950991259297E-06</v>
+        <v>3.146025862243182E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H16">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I16">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J16">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>153.646004</v>
+        <v>301.3939006666666</v>
       </c>
       <c r="N16">
-        <v>460.938012</v>
+        <v>904.181702</v>
       </c>
       <c r="O16">
-        <v>0.3795310832320401</v>
+        <v>0.7995439048236145</v>
       </c>
       <c r="P16">
-        <v>0.3795310832320402</v>
+        <v>0.7995439048236146</v>
       </c>
       <c r="Q16">
-        <v>227.8299310199613</v>
+        <v>161.9841519133</v>
       </c>
       <c r="R16">
-        <v>2050.469379179652</v>
+        <v>1457.8573672197</v>
       </c>
       <c r="S16">
-        <v>0.1833696163428644</v>
+        <v>0.1428288320274682</v>
       </c>
       <c r="T16">
-        <v>0.1833696163428645</v>
+        <v>0.1428288320274682</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H17">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I17">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J17">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02990166666666667</v>
+        <v>0.075583</v>
       </c>
       <c r="N17">
-        <v>0.08970500000000001</v>
+        <v>0.226749</v>
       </c>
       <c r="O17">
-        <v>7.386207024585806E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="P17">
-        <v>7.386207024585807E-05</v>
+        <v>0.0002005081284810714</v>
       </c>
       <c r="Q17">
-        <v>0.04433889900611111</v>
+        <v>0.04062208335</v>
       </c>
       <c r="R17">
-        <v>0.399050091055</v>
+        <v>0.36559875015</v>
       </c>
       <c r="S17">
-        <v>3.568629838677019E-05</v>
+        <v>3.581834797337714E-05</v>
       </c>
       <c r="T17">
-        <v>3.56862983867702E-05</v>
+        <v>3.581834797337715E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H18">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I18">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J18">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.38673933333333</v>
+        <v>19.983405</v>
       </c>
       <c r="N18">
-        <v>79.160218</v>
+        <v>59.950215</v>
       </c>
       <c r="O18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="P18">
-        <v>0.06517961744154102</v>
+        <v>0.05301238555269418</v>
       </c>
       <c r="Q18">
-        <v>39.12688156963089</v>
+        <v>10.74008101725</v>
       </c>
       <c r="R18">
-        <v>352.141934126678</v>
+        <v>96.66072915525</v>
       </c>
       <c r="S18">
-        <v>0.03149139022250461</v>
+        <v>0.009470020427648078</v>
       </c>
       <c r="T18">
-        <v>0.03149139022250461</v>
+        <v>0.009470020427648078</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H19">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I19">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J19">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>224.6466153333333</v>
+        <v>51.79484666666666</v>
       </c>
       <c r="N19">
-        <v>673.939846</v>
+        <v>155.38454</v>
       </c>
       <c r="O19">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="P19">
-        <v>0.5549143553507024</v>
+        <v>0.1374024287220326</v>
       </c>
       <c r="Q19">
-        <v>333.1113178528295</v>
+        <v>27.837140341</v>
       </c>
       <c r="R19">
-        <v>2998.001860675466</v>
+        <v>250.534263069</v>
       </c>
       <c r="S19">
-        <v>0.2681056623275174</v>
+        <v>0.02454527924446476</v>
       </c>
       <c r="T19">
-        <v>0.2681056623275174</v>
+        <v>0.02454527924446476</v>
       </c>
     </row>
   </sheetData>
